--- a/data/trans_bre/P23_7_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_7_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,62</t>
+          <t>5,05</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,15</t>
+          <t>3,17</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>58,0%</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>21,6%</t>
+          <t>224,37%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>99,31%</t>
+          <t>7,17%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>67,53%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>23,73%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 6,04</t>
+          <t>1,28; 9,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 4,6</t>
+          <t>-4,94; 4,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,39; 7,56</t>
+          <t>-1,34; 8,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-17,47; 202,91</t>
+          <t>-4,13; 8,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-44,58; 129,19</t>
+          <t>10,68; 1195,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 310,84</t>
+          <t>-63,03; 200,28</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-25,64; 404,92</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-40,66; 188,14</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,81</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>40,1%</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-45,95%</t>
+          <t>20,92%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>29,57%</t>
+          <t>-29,03%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>47,18%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>77,17%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 7,26</t>
+          <t>-4,65; 5,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,85; 1,58</t>
+          <t>-13,82; 3,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 4,7</t>
+          <t>-2,75; 6,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-35,7; 217,27</t>
+          <t>-2,03; 8,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-87,75; 86,3</t>
+          <t>-62,42; 286,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-54,99; 238,96</t>
+          <t>-100,0; 440,83</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-56,94; 417,62</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-38,54; 493,74</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,89</t>
+          <t>-23,18</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,69</t>
+          <t>-8,32</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-9,78%</t>
+          <t>-20,33</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-40,32%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-21,72%</t>
+          <t>-83,22%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-75,75%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-71,4%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 7,51</t>
+          <t>0,0; 12,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-30,87; 6,56</t>
+          <t>-62,0; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-22,88; 10,48</t>
+          <t>-34,88; 2,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-60,24; 9,93</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 382,22</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-92,17; 315,19</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>-2,79</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>42,75%</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-17,73%</t>
+          <t>105,47%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>42,28%</t>
+          <t>-38,3%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>28,75%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-1,17%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 4,99</t>
+          <t>0,16; 6,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 1,88</t>
+          <t>-10,76; 1,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 4,79</t>
+          <t>-2,38; 4,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,78; 133,49</t>
+          <t>-8,78; 4,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-58,88; 44,2</t>
+          <t>-1,83; 336,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,04; 142,85</t>
+          <t>-76,58; 35,34</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-34,93; 156,68</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-62,44; 99,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P23_7_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_7_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>5,05</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,36</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,17</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,84</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>224,37%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>7,17%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>67,53%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>23,73%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>6.408677340675403</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.142005413822946</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.51183463069398</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>2.146224686882055</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>3.10001860834015</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.2248413948621837</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.7472009938336877</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.2775542930559378</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>1,28; 9,72</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,94; 4,81</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,34; 8,89</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-4,13; 8,62</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>10,68; 1195,74</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-63,03; 200,28</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-25,64; 404,92</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-40,66; 188,14</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>2.283694051667889</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-4.385772531391576</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.8585304470197397</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-3.861005567759788</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0.2674725823562849</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.5721879911676575</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.2061930820772793</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.3951775064646096</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>12.64951786226848</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>6.223922554730009</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>9.403822939855273</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>9.238763300414712</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>15.16760074481251</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>2.448416692821663</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>4.162457238622253</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.081149121521639</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,03</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-1,38</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,84</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>3,11</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>20,92%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-29,03%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>47,18%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>77,17%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-4,65; 5,78</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-13,82; 3,29</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,75; 6,83</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-2,03; 8,04</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-62,42; 286,9</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 440,83</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-56,94; 417,62</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-38,54; 493,74</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>1.40418910299537</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-1.600731985656081</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2.013394371826074</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>3.09999665407184</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.3090584640182876</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.3338193955094885</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.5681379172156495</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.7592432611984173</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,87</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-23,18</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-8,32</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-20,33</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-83,22%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-75,75%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-71,4%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-3.759594827133204</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-14.40744453133242</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-2.208845291388675</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-2.309089773319221</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.5806168320600661</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.5574878009133556</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.386567839325486</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 12,8</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-62,0; 0,0</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-34,88; 2,73</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-60,24; 9,93</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>6.156157354042719</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>3.089047328660395</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>6.711118127030458</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>8.080444899940311</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>3.228152904658474</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>4.010840264023361</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>4.194711038206762</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>4.802324853215367</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,183 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>3,23</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-2,79</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,45</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-0,1</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>105,47%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-38,3%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>28,75%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-1,17%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>3.605688118667046</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-20.23933111077224</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-7.501172425842316</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-21.09387124028256</v>
+      </c>
+      <c r="G10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.8203787863296902</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.7171228491866223</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.7378766091320913</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,16; 6,42</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-10,76; 1,22</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-2,38; 4,95</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-8,78; 4,81</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-1,83; 336,83</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-76,58; 35,34</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-34,93; 156,68</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-62,44; 99,19</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-58.52608891138055</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-32.6840182233756</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-62.01762487924702</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>15.86785806988337</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>3.179404816366584</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>8.746762070109304</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>4.072732091026452</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-2.153158752720384</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.762136024039397</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.06019493052124431</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>1.408242648083727</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.3080654341883046</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.3655157804112663</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.006968489770600461</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.8831358306043159</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-9.140764315225242</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-2.019282095349106</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-8.862215029924718</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.1656684068378338</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.719016220936372</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.3081046450932581</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.6271658885474323</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>7.744900390049074</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.891777315800419</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>5.290090068375562</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>5.080432217902358</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>4.362916678343492</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.5373077821012067</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.716312953362662</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.9968063840001707</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1011,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
